--- a/Multiknapsack/results/fixed_recourse/singlecut/M50_N100_T0_a75_reformulation.xlsx
+++ b/Multiknapsack/results/fixed_recourse/singlecut/M50_N100_T0_a75_reformulation.xlsx
@@ -51,7 +51,7 @@
     <t>num quad cons</t>
   </si>
   <si>
-    <t>OPTIMAL</t>
+    <t>TIME_LIMIT</t>
   </si>
 </sst>
 </file>
@@ -440,13 +440,13 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>-1155.6677614347686</v>
+        <v>-493.878975631448</v>
       </c>
       <c r="C2">
-        <v>0.0</v>
+        <v>2.9786947810041657</v>
       </c>
       <c r="D2">
-        <v>53.698427438</v>
+        <v>3898.835644505</v>
       </c>
       <c r="E2" t="s">
         <v>8</v>
@@ -466,13 +466,13 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>-1160.3422218637184</v>
+        <v>-493.7770132109689</v>
       </c>
       <c r="C3">
-        <v>3.919079581160279e-14</v>
+        <v>1.6976536168606413</v>
       </c>
       <c r="D3">
-        <v>51.584379536</v>
+        <v>4007.940096425</v>
       </c>
       <c r="E3" t="s">
         <v>8</v>
@@ -492,13 +492,13 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>-1165.4039138542046</v>
+        <v>-494.6697799631145</v>
       </c>
       <c r="C4">
-        <v>0.0</v>
+        <v>1.1096250214684438</v>
       </c>
       <c r="D4">
-        <v>49.762141381</v>
+        <v>3883.604352099</v>
       </c>
       <c r="E4" t="s">
         <v>8</v>
@@ -518,13 +518,13 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>-1182.6806093240584</v>
+        <v>-501.03532061828355</v>
       </c>
       <c r="C5">
-        <v>0.0</v>
+        <v>5.723580022259411</v>
       </c>
       <c r="D5">
-        <v>51.44174461</v>
+        <v>3634.586522726</v>
       </c>
       <c r="E5" t="s">
         <v>8</v>
@@ -544,13 +544,13 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>-1151.5913951159318</v>
+        <v>-489.92059559647726</v>
       </c>
       <c r="C6">
-        <v>1.9744301356152664e-14</v>
+        <v>5.000728538711415</v>
       </c>
       <c r="D6">
-        <v>51.101381711</v>
+        <v>3626.835960805</v>
       </c>
       <c r="E6" t="s">
         <v>8</v>
@@ -570,13 +570,13 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>-1139.5270312436298</v>
+        <v>-485.41422872748444</v>
       </c>
       <c r="C7">
-        <v>0.0</v>
+        <v>1.3593148623127218</v>
       </c>
       <c r="D7">
-        <v>50.99390451</v>
+        <v>3771.509533898</v>
       </c>
       <c r="E7" t="s">
         <v>8</v>
@@ -596,13 +596,13 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>-1140.4707892873744</v>
+        <v>-482.08357617734873</v>
       </c>
       <c r="C8">
-        <v>0.0</v>
+        <v>1.0366550606859448</v>
       </c>
       <c r="D8">
-        <v>50.880742649</v>
+        <v>3862.965649845</v>
       </c>
       <c r="E8" t="s">
         <v>8</v>
@@ -622,13 +622,13 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>-1170.8393993377722</v>
+        <v>-494.2150625290095</v>
       </c>
       <c r="C9">
-        <v>1.941971508405127e-14</v>
+        <v>7.134439581090576</v>
       </c>
       <c r="D9">
-        <v>54.854877862</v>
+        <v>3603.486274451</v>
       </c>
       <c r="E9" t="s">
         <v>8</v>
@@ -648,13 +648,13 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>-1159.2599484385823</v>
+        <v>-490.8321604061183</v>
       </c>
       <c r="C10">
-        <v>1.9613691972146892e-14</v>
+        <v>1.3523059005132159</v>
       </c>
       <c r="D10">
-        <v>50.580051813</v>
+        <v>3720.388811662</v>
       </c>
       <c r="E10" t="s">
         <v>8</v>
@@ -674,13 +674,13 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>-1144.5087727057712</v>
+        <v>-483.7629393419096</v>
       </c>
       <c r="C11">
-        <v>1.9866486030130684e-14</v>
+        <v>1.1420716179603556</v>
       </c>
       <c r="D11">
-        <v>50.979584828</v>
+        <v>3846.992365969</v>
       </c>
       <c r="E11" t="s">
         <v>8</v>
